--- a/ECOS_TABLE_20210118_154159.xlsx
+++ b/ECOS_TABLE_20210118_154159.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SYun\BigData\Corona\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="데이터" sheetId="1" r:id="rId1"/>
-    <sheet name="주석" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="267">
   <si>
     <t>통계표</t>
   </si>
@@ -821,72 +815,38 @@
   </si>
   <si>
     <t>원자료</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">   6.1.1 주식시장(일별)_x000D_
-통계담당 : 한국은행 금융시장국 주식시장팀(02-759-4726)_x000D_
-주 : undefined</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="###,###,###,##0.00"/>
-  </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="맑은 고딕"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="54"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="darkTrellis">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="darkTrellis">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -909,141 +869,26 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1053,44 +898,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1117,15 +962,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1152,7 +996,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1164,1842 +1007,1760 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JC2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:JD2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="252" width="12" customWidth="1"/>
-    <col min="253" max="253" width="4" customWidth="1"/>
-    <col min="254" max="263" width="12" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:263" ht="38.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:264">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AP1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AR1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AS1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AT1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AU1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AV1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AW1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AX1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AY1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BA1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BB1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BC1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BD1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BE1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BF1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BG1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BH1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BI1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BK1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BL1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BM1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BN1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="BO1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BP1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="2" t="s">
+      <c r="BR1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="2" t="s">
+      <c r="BS1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="2" t="s">
+      <c r="BT1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="2" t="s">
+      <c r="BU1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="2" t="s">
+      <c r="BV1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="2" t="s">
+      <c r="BW1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="2" t="s">
+      <c r="BX1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="2" t="s">
+      <c r="BY1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="2" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="2" t="s">
+      <c r="CA1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="2" t="s">
+      <c r="CB1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="2" t="s">
+      <c r="CC1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="2" t="s">
+      <c r="CD1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="2" t="s">
+      <c r="CE1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" s="2" t="s">
+      <c r="CF1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" s="2" t="s">
+      <c r="CG1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" s="2" t="s">
+      <c r="CH1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" s="2" t="s">
+      <c r="CI1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" s="2" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" s="2" t="s">
+      <c r="CK1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" s="2" t="s">
+      <c r="CL1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" s="2" t="s">
+      <c r="CM1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" s="2" t="s">
+      <c r="CN1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" s="2" t="s">
+      <c r="CO1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" s="2" t="s">
+      <c r="CP1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" s="2" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="CQ1" s="2" t="s">
+      <c r="CR1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="CR1" s="2" t="s">
+      <c r="CS1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" s="2" t="s">
+      <c r="CT1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="CT1" s="2" t="s">
+      <c r="CU1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="CU1" s="2" t="s">
+      <c r="CV1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="CV1" s="2" t="s">
+      <c r="CW1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="CW1" s="2" t="s">
+      <c r="CX1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="CX1" s="2" t="s">
+      <c r="CY1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="CY1" s="2" t="s">
+      <c r="CZ1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="CZ1" s="2" t="s">
+      <c r="DA1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="DA1" s="2" t="s">
+      <c r="DB1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="DB1" s="2" t="s">
+      <c r="DC1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="DC1" s="2" t="s">
+      <c r="DD1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="DD1" s="2" t="s">
+      <c r="DE1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="DE1" s="2" t="s">
+      <c r="DF1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="DF1" s="2" t="s">
+      <c r="DG1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="DG1" s="2" t="s">
+      <c r="DH1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="DH1" s="2" t="s">
+      <c r="DI1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="DI1" s="2" t="s">
+      <c r="DJ1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="DJ1" s="2" t="s">
+      <c r="DK1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="DK1" s="2" t="s">
+      <c r="DL1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="DL1" s="2" t="s">
+      <c r="DM1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="DM1" s="2" t="s">
+      <c r="DN1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="DN1" s="2" t="s">
+      <c r="DO1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="DO1" s="2" t="s">
+      <c r="DP1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="DP1" s="2" t="s">
+      <c r="DQ1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="DQ1" s="2" t="s">
+      <c r="DR1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="DR1" s="2" t="s">
+      <c r="DS1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="DS1" s="2" t="s">
+      <c r="DT1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="DT1" s="2" t="s">
+      <c r="DU1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="DU1" s="2" t="s">
+      <c r="DV1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="DV1" s="2" t="s">
+      <c r="DW1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="DW1" s="2" t="s">
+      <c r="DX1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="DX1" s="2" t="s">
+      <c r="DY1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="DY1" s="2" t="s">
+      <c r="DZ1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="DZ1" s="2" t="s">
+      <c r="EA1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="EA1" s="2" t="s">
+      <c r="EB1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="EB1" s="2" t="s">
+      <c r="EC1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="EC1" s="2" t="s">
+      <c r="ED1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="ED1" s="2" t="s">
+      <c r="EE1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="EE1" s="2" t="s">
+      <c r="EF1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="EF1" s="2" t="s">
+      <c r="EG1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="EG1" s="2" t="s">
+      <c r="EH1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="EH1" s="2" t="s">
+      <c r="EI1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="EI1" s="2" t="s">
+      <c r="EJ1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="EJ1" s="2" t="s">
+      <c r="EK1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="EK1" s="2" t="s">
+      <c r="EL1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="EL1" s="2" t="s">
+      <c r="EM1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="EM1" s="2" t="s">
+      <c r="EN1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="EN1" s="2" t="s">
+      <c r="EO1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="EO1" s="2" t="s">
+      <c r="EP1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="EP1" s="2" t="s">
+      <c r="EQ1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="EQ1" s="2" t="s">
+      <c r="ER1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="ER1" s="2" t="s">
+      <c r="ES1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="ES1" s="2" t="s">
+      <c r="ET1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="ET1" s="2" t="s">
+      <c r="EU1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="EU1" s="2" t="s">
+      <c r="EV1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="EV1" s="2" t="s">
+      <c r="EW1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="EW1" s="2" t="s">
+      <c r="EX1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="EX1" s="2" t="s">
+      <c r="EY1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="EY1" s="2" t="s">
+      <c r="EZ1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="EZ1" s="2" t="s">
+      <c r="FA1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="FA1" s="2" t="s">
+      <c r="FB1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="FB1" s="2" t="s">
+      <c r="FC1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="FC1" s="2" t="s">
+      <c r="FD1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="FD1" s="2" t="s">
+      <c r="FE1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="FE1" s="2" t="s">
+      <c r="FF1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="FF1" s="2" t="s">
+      <c r="FG1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="FG1" s="2" t="s">
+      <c r="FH1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="FH1" s="2" t="s">
+      <c r="FI1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="FI1" s="2" t="s">
+      <c r="FJ1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="FJ1" s="2" t="s">
+      <c r="FK1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="FK1" s="2" t="s">
+      <c r="FL1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="FL1" s="2" t="s">
+      <c r="FM1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="FM1" s="2" t="s">
+      <c r="FN1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="FN1" s="2" t="s">
+      <c r="FO1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="FO1" s="2" t="s">
+      <c r="FP1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="FP1" s="2" t="s">
+      <c r="FQ1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="FQ1" s="2" t="s">
+      <c r="FR1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="FR1" s="2" t="s">
+      <c r="FS1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="FS1" s="2" t="s">
+      <c r="FT1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="FT1" s="2" t="s">
+      <c r="FU1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="FU1" s="2" t="s">
+      <c r="FV1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="FV1" s="2" t="s">
+      <c r="FW1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="FW1" s="2" t="s">
+      <c r="FX1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="FX1" s="2" t="s">
+      <c r="FY1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="FY1" s="2" t="s">
+      <c r="FZ1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="FZ1" s="2" t="s">
+      <c r="GA1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="GA1" s="2" t="s">
+      <c r="GB1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="GB1" s="2" t="s">
+      <c r="GC1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="GC1" s="2" t="s">
+      <c r="GD1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="GD1" s="2" t="s">
+      <c r="GE1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="GE1" s="2" t="s">
+      <c r="GF1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="GF1" s="2" t="s">
+      <c r="GG1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="GG1" s="2" t="s">
+      <c r="GH1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="GH1" s="2" t="s">
+      <c r="GI1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="GI1" s="2" t="s">
+      <c r="GJ1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="GJ1" s="2" t="s">
+      <c r="GK1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="GK1" s="2" t="s">
+      <c r="GL1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="GL1" s="2" t="s">
+      <c r="GM1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="GM1" s="2" t="s">
+      <c r="GN1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="GN1" s="2" t="s">
+      <c r="GO1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="GO1" s="2" t="s">
+      <c r="GP1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="GP1" s="2" t="s">
+      <c r="GQ1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="GQ1" s="2" t="s">
+      <c r="GR1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="GR1" s="2" t="s">
+      <c r="GS1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="GS1" s="2" t="s">
+      <c r="GT1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="GT1" s="2" t="s">
+      <c r="GU1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="GU1" s="2" t="s">
+      <c r="GV1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="GV1" s="2" t="s">
+      <c r="GW1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="GW1" s="2" t="s">
+      <c r="GX1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="GX1" s="2" t="s">
+      <c r="GY1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="GY1" s="2" t="s">
+      <c r="GZ1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="GZ1" s="2" t="s">
+      <c r="HA1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="HA1" s="2" t="s">
+      <c r="HB1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="HB1" s="2" t="s">
+      <c r="HC1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="HC1" s="2" t="s">
+      <c r="HD1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="HD1" s="2" t="s">
+      <c r="HE1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="HE1" s="2" t="s">
+      <c r="HF1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="HF1" s="2" t="s">
+      <c r="HG1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="HG1" s="2" t="s">
+      <c r="HH1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="HH1" s="2" t="s">
+      <c r="HI1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="HI1" s="2" t="s">
+      <c r="HJ1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="HJ1" s="2" t="s">
+      <c r="HK1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="HK1" s="2" t="s">
+      <c r="HL1" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="HL1" s="2" t="s">
+      <c r="HM1" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="HM1" s="2" t="s">
+      <c r="HN1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="HN1" s="2" t="s">
+      <c r="HO1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="HO1" s="2" t="s">
+      <c r="HP1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="HP1" s="2" t="s">
+      <c r="HQ1" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="HQ1" s="2" t="s">
+      <c r="HR1" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="HR1" s="2" t="s">
+      <c r="HS1" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="HS1" s="2" t="s">
+      <c r="HT1" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="HT1" s="2" t="s">
+      <c r="HU1" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="HU1" s="2" t="s">
+      <c r="HV1" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="HV1" s="2" t="s">
+      <c r="HW1" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="HW1" s="2" t="s">
+      <c r="HX1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="HX1" s="2" t="s">
+      <c r="HY1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="HY1" s="2" t="s">
+      <c r="HZ1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="HZ1" s="2" t="s">
+      <c r="IA1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="IA1" s="2" t="s">
+      <c r="IB1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="IB1" s="2" t="s">
+      <c r="IC1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="IC1" s="2" t="s">
+      <c r="ID1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="ID1" s="2" t="s">
+      <c r="IE1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="IE1" s="2" t="s">
+      <c r="IF1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="IF1" s="2" t="s">
+      <c r="IG1" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="IG1" s="2" t="s">
+      <c r="IH1" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="IH1" s="2" t="s">
+      <c r="II1" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="II1" s="2" t="s">
+      <c r="IJ1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="IJ1" s="2" t="s">
+      <c r="IK1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="IK1" s="2" t="s">
+      <c r="IL1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="IL1" s="2" t="s">
+      <c r="IM1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="IM1" s="2" t="s">
+      <c r="IN1" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="IN1" s="2" t="s">
+      <c r="IO1" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="IO1" s="2" t="s">
+      <c r="IP1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="IP1" s="2" t="s">
+      <c r="IQ1" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="IQ1" s="2" t="s">
+      <c r="IR1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="IR1" s="2" t="s">
+      <c r="IS1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="IS1" s="2" t="s">
+      <c r="IT1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="IT1" s="2" t="s">
+      <c r="IU1" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="IU1" s="2" t="s">
+      <c r="IV1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="IV1" s="2" t="s">
+      <c r="IW1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="IW1" s="2" t="s">
+      <c r="IX1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="IX1" s="2" t="s">
+      <c r="IY1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="IY1" s="2" t="s">
+      <c r="IZ1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="IZ1" s="2" t="s">
+      <c r="JA1" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="JA1" s="2" t="s">
+      <c r="JB1" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="JB1" s="2" t="s">
+      <c r="JC1" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="JC1" s="2" t="s">
+      <c r="JD1" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="2" spans="1:263" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:264">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>263</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" t="s">
         <v>264</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" t="s">
         <v>265</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" t="s">
         <v>266</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F2">
         <v>2175.17</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G2">
         <v>2176.46</v>
       </c>
-      <c r="G2" s="3">
-        <v>2155.0700000000002</v>
-      </c>
-      <c r="H2" s="3">
+      <c r="H2">
+        <v>2155.07</v>
+      </c>
+      <c r="I2">
         <v>2175.54</v>
       </c>
-      <c r="I2" s="3">
+      <c r="J2">
         <v>2151.31</v>
       </c>
-      <c r="J2" s="3">
-        <v>2186.4499999999998</v>
-      </c>
-      <c r="K2" s="3">
+      <c r="K2">
+        <v>2186.45</v>
+      </c>
+      <c r="L2">
         <v>2206.39</v>
       </c>
-      <c r="L2" s="3">
-        <v>2229.2600000000002</v>
-      </c>
-      <c r="M2" s="3">
+      <c r="M2">
+        <v>2229.26</v>
+      </c>
+      <c r="N2">
         <v>2238.88</v>
       </c>
-      <c r="N2" s="3">
+      <c r="O2">
         <v>2230.98</v>
       </c>
-      <c r="O2" s="3">
-        <v>2248.0500000000002</v>
-      </c>
-      <c r="P2" s="3">
-        <v>2250.5700000000002</v>
-      </c>
-      <c r="Q2" s="3">
+      <c r="P2">
+        <v>2248.05</v>
+      </c>
+      <c r="Q2">
+        <v>2250.57</v>
+      </c>
+      <c r="R2">
         <v>2262.64</v>
       </c>
-      <c r="R2" s="3">
+      <c r="S2">
         <v>2239.69</v>
       </c>
-      <c r="S2" s="3">
+      <c r="T2">
         <v>2267.25</v>
       </c>
-      <c r="T2" s="3">
+      <c r="U2">
         <v>2246.13</v>
       </c>
-      <c r="U2" s="3">
-        <v>2176.7199999999998</v>
-      </c>
-      <c r="V2" s="3">
-        <v>2185.2800000000002</v>
-      </c>
-      <c r="W2" s="3">
+      <c r="V2">
+        <v>2176.72</v>
+      </c>
+      <c r="W2">
+        <v>2185.28</v>
+      </c>
+      <c r="X2">
         <v>2148</v>
       </c>
-      <c r="X2" s="3">
-        <v>2119.0100000000002</v>
-      </c>
-      <c r="Y2" s="3">
+      <c r="Y2">
+        <v>2119.01</v>
+      </c>
+      <c r="Z2">
         <v>2118.88</v>
       </c>
-      <c r="Z2" s="3">
+      <c r="AA2">
         <v>2157.9</v>
       </c>
-      <c r="AA2" s="3">
+      <c r="AB2">
         <v>2165.63</v>
       </c>
-      <c r="AB2" s="3">
+      <c r="AC2">
         <v>2227.94</v>
       </c>
-      <c r="AC2" s="3">
-        <v>2211.9499999999998</v>
-      </c>
-      <c r="AD2" s="3">
-        <v>2201.0700000000002</v>
-      </c>
-      <c r="AE2" s="3">
+      <c r="AD2">
+        <v>2211.95</v>
+      </c>
+      <c r="AE2">
+        <v>2201.07</v>
+      </c>
+      <c r="AF2">
         <v>2223.12</v>
       </c>
-      <c r="AF2" s="3">
+      <c r="AG2">
         <v>2238.38</v>
       </c>
-      <c r="AG2" s="3">
+      <c r="AH2">
         <v>2232.96</v>
       </c>
-      <c r="AH2" s="3">
+      <c r="AI2">
         <v>2243.59</v>
       </c>
-      <c r="AI2" s="3">
+      <c r="AJ2">
         <v>2242.17</v>
       </c>
-      <c r="AJ2" s="3">
+      <c r="AK2">
         <v>2208.88</v>
       </c>
-      <c r="AK2" s="3">
+      <c r="AL2">
         <v>2210.34</v>
       </c>
-      <c r="AL2" s="3">
+      <c r="AM2">
         <v>2195.5</v>
       </c>
-      <c r="AM2" s="3">
+      <c r="AN2">
         <v>2162.84</v>
       </c>
-      <c r="AN2" s="3">
+      <c r="AO2">
         <v>2079.04</v>
       </c>
-      <c r="AO2" s="3">
+      <c r="AP2">
         <v>2103.61</v>
       </c>
-      <c r="AP2" s="3">
+      <c r="AQ2">
         <v>2076.77</v>
       </c>
-      <c r="AQ2" s="3">
+      <c r="AR2">
         <v>2054.89</v>
       </c>
-      <c r="AR2" s="3">
+      <c r="AS2">
         <v>1987.01</v>
       </c>
-      <c r="AS2" s="3">
+      <c r="AT2">
         <v>2002.51</v>
       </c>
-      <c r="AT2" s="3">
+      <c r="AU2">
         <v>2014.15</v>
       </c>
-      <c r="AU2" s="3">
+      <c r="AV2">
         <v>2059.33</v>
       </c>
-      <c r="AV2" s="3">
-        <v>2085.2600000000002</v>
-      </c>
-      <c r="AW2" s="3">
+      <c r="AW2">
+        <v>2085.26</v>
+      </c>
+      <c r="AX2">
         <v>2040.22</v>
       </c>
-      <c r="AX2" s="3">
+      <c r="AY2">
         <v>1954.77</v>
       </c>
-      <c r="AY2" s="3">
+      <c r="AZ2">
         <v>1962.93</v>
       </c>
-      <c r="AZ2" s="3">
+      <c r="BA2">
         <v>1908.27</v>
       </c>
-      <c r="BA2" s="3">
+      <c r="BB2">
         <v>1834.33</v>
       </c>
-      <c r="BB2" s="3">
+      <c r="BC2">
         <v>1771.44</v>
       </c>
-      <c r="BC2" s="3">
+      <c r="BD2">
         <v>1714.86</v>
       </c>
-      <c r="BD2" s="3">
+      <c r="BE2">
         <v>1672.44</v>
       </c>
-      <c r="BE2" s="3">
+      <c r="BF2">
         <v>1591.2</v>
       </c>
-      <c r="BF2" s="3">
+      <c r="BG2">
         <v>1457.64</v>
       </c>
-      <c r="BG2" s="3">
+      <c r="BH2">
         <v>1566.15</v>
       </c>
-      <c r="BH2" s="3">
+      <c r="BI2">
         <v>1482.46</v>
       </c>
-      <c r="BI2" s="3">
+      <c r="BJ2">
         <v>1609.97</v>
       </c>
-      <c r="BJ2" s="3">
+      <c r="BK2">
         <v>1704.76</v>
       </c>
-      <c r="BK2" s="3">
+      <c r="BL2">
         <v>1686.24</v>
       </c>
-      <c r="BL2" s="3">
+      <c r="BM2">
         <v>1717.73</v>
       </c>
-      <c r="BM2" s="3">
+      <c r="BN2">
         <v>1717.12</v>
       </c>
-      <c r="BN2" s="3">
+      <c r="BO2">
         <v>1754.64</v>
       </c>
-      <c r="BO2" s="3">
+      <c r="BP2">
         <v>1685.46</v>
       </c>
-      <c r="BP2" s="3">
+      <c r="BQ2">
         <v>1724.86</v>
       </c>
-      <c r="BQ2" s="3">
+      <c r="BR2">
         <v>1725.44</v>
       </c>
-      <c r="BR2" s="3">
+      <c r="BS2">
         <v>1791.88</v>
       </c>
-      <c r="BS2" s="3">
+      <c r="BT2">
         <v>1823.6</v>
       </c>
-      <c r="BT2" s="3">
+      <c r="BU2">
         <v>1807.14</v>
       </c>
-      <c r="BU2" s="3">
+      <c r="BV2">
         <v>1836.21</v>
       </c>
-      <c r="BV2" s="3">
+      <c r="BW2">
         <v>1860.7</v>
       </c>
-      <c r="BW2" s="3">
+      <c r="BX2">
         <v>1825.76</v>
       </c>
-      <c r="BX2" s="3">
+      <c r="BY2">
         <v>1857.08</v>
       </c>
-      <c r="BY2" s="3">
+      <c r="BZ2">
         <v>1857.07</v>
       </c>
-      <c r="BZ2" s="3">
+      <c r="CA2">
         <v>1914.53</v>
       </c>
-      <c r="CA2" s="3">
+      <c r="CB2">
         <v>1898.36</v>
       </c>
-      <c r="CB2" s="3">
+      <c r="CC2">
         <v>1879.38</v>
       </c>
-      <c r="CC2" s="3">
+      <c r="CD2">
         <v>1896.15</v>
       </c>
-      <c r="CD2" s="3">
+      <c r="CE2">
         <v>1914.73</v>
       </c>
-      <c r="CE2" s="3">
+      <c r="CF2">
         <v>1889.01</v>
       </c>
-      <c r="CF2" s="3">
+      <c r="CG2">
         <v>1922.77</v>
       </c>
-      <c r="CG2" s="3">
+      <c r="CH2">
         <v>1934.09</v>
       </c>
-      <c r="CH2" s="3">
+      <c r="CI2">
         <v>1947.56</v>
       </c>
-      <c r="CI2" s="3">
+      <c r="CJ2">
         <v>1895.37</v>
       </c>
-      <c r="CJ2" s="3">
+      <c r="CK2">
         <v>1928.76</v>
       </c>
-      <c r="CK2" s="3">
+      <c r="CL2">
         <v>1928.61</v>
       </c>
-      <c r="CL2" s="3">
+      <c r="CM2">
         <v>1945.82</v>
       </c>
-      <c r="CM2" s="3">
+      <c r="CN2">
         <v>1935.4</v>
       </c>
-      <c r="CN2" s="3">
+      <c r="CO2">
         <v>1922.17</v>
       </c>
-      <c r="CO2" s="3">
+      <c r="CP2">
         <v>1940.42</v>
       </c>
-      <c r="CP2" s="3">
+      <c r="CQ2">
         <v>1924.96</v>
       </c>
-      <c r="CQ2" s="3">
+      <c r="CR2">
         <v>1927.28</v>
       </c>
-      <c r="CR2" s="3">
+      <c r="CS2">
         <v>1937.11</v>
       </c>
-      <c r="CS2" s="3">
+      <c r="CT2">
         <v>1980.61</v>
       </c>
-      <c r="CT2" s="3">
+      <c r="CU2">
         <v>1989.64</v>
       </c>
-      <c r="CU2" s="3">
+      <c r="CV2">
         <v>1998.31</v>
       </c>
-      <c r="CV2" s="3">
+      <c r="CW2">
         <v>1970.13</v>
       </c>
-      <c r="CW2" s="3">
+      <c r="CX2">
         <v>1994.6</v>
       </c>
-      <c r="CX2" s="3">
+      <c r="CY2">
         <v>2029.78</v>
       </c>
-      <c r="CY2" s="3">
+      <c r="CZ2">
         <v>2031.2</v>
       </c>
-      <c r="CZ2" s="3">
+      <c r="DA2">
         <v>2028.54</v>
       </c>
-      <c r="DA2" s="3">
+      <c r="DB2">
         <v>2029.6</v>
       </c>
-      <c r="DB2" s="3">
+      <c r="DC2">
         <v>2065.08</v>
       </c>
-      <c r="DC2" s="3">
+      <c r="DD2">
         <v>2087.19</v>
       </c>
-      <c r="DD2" s="3">
+      <c r="DE2">
         <v>2147</v>
       </c>
-      <c r="DE2" s="3">
-        <v>2151.1799999999998</v>
-      </c>
-      <c r="DF2" s="3">
+      <c r="DF2">
+        <v>2151.18</v>
+      </c>
+      <c r="DG2">
         <v>2181.87</v>
       </c>
-      <c r="DG2" s="3">
+      <c r="DH2">
         <v>2184.29</v>
       </c>
-      <c r="DH2" s="3">
+      <c r="DI2">
         <v>2188.92</v>
       </c>
-      <c r="DI2" s="3">
+      <c r="DJ2">
         <v>2195.69</v>
       </c>
-      <c r="DJ2" s="3">
-        <v>2176.7800000000002</v>
-      </c>
-      <c r="DK2" s="3">
-        <v>2132.3000000000002</v>
-      </c>
-      <c r="DL2" s="3">
+      <c r="DK2">
+        <v>2176.78</v>
+      </c>
+      <c r="DL2">
+        <v>2132.3</v>
+      </c>
+      <c r="DM2">
         <v>2030.82</v>
       </c>
-      <c r="DM2" s="3">
-        <v>2138.0500000000002</v>
-      </c>
-      <c r="DN2" s="3">
-        <v>2141.0500000000002</v>
-      </c>
-      <c r="DO2" s="3">
+      <c r="DN2">
+        <v>2138.05</v>
+      </c>
+      <c r="DO2">
+        <v>2141.05</v>
+      </c>
+      <c r="DP2">
         <v>2133.48</v>
       </c>
-      <c r="DP2" s="3">
-        <v>2141.3200000000002</v>
-      </c>
-      <c r="DQ2" s="3">
+      <c r="DQ2">
+        <v>2141.32</v>
+      </c>
+      <c r="DR2">
         <v>2126.73</v>
       </c>
-      <c r="DR2" s="3">
-        <v>2131.2399999999998</v>
-      </c>
-      <c r="DS2" s="3">
-        <v>2161.5100000000002</v>
-      </c>
-      <c r="DT2" s="3">
+      <c r="DS2">
+        <v>2131.24</v>
+      </c>
+      <c r="DT2">
+        <v>2161.51</v>
+      </c>
+      <c r="DU2">
         <v>2112.37</v>
       </c>
-      <c r="DU2" s="3">
+      <c r="DV2">
         <v>2134.65</v>
       </c>
-      <c r="DV2" s="3">
+      <c r="DW2">
         <v>2093.48</v>
       </c>
-      <c r="DW2" s="3">
+      <c r="DX2">
         <v>2108.33</v>
       </c>
-      <c r="DX2" s="3">
-        <v>2106.6999999999998</v>
-      </c>
-      <c r="DY2" s="3">
+      <c r="DY2">
+        <v>2106.7</v>
+      </c>
+      <c r="DZ2">
         <v>2135.37</v>
       </c>
-      <c r="DZ2" s="3">
+      <c r="EA2">
         <v>2152.41</v>
       </c>
-      <c r="EA2" s="3">
-        <v>2187.9299999999998</v>
-      </c>
-      <c r="EB2" s="3">
+      <c r="EB2">
+        <v>2187.93</v>
+      </c>
+      <c r="EC2">
         <v>2164.17</v>
       </c>
-      <c r="EC2" s="3">
+      <c r="ED2">
         <v>2158.88</v>
       </c>
-      <c r="ED2" s="3">
+      <c r="EE2">
         <v>2167.9</v>
       </c>
-      <c r="EE2" s="3">
+      <c r="EF2">
         <v>2150.25</v>
       </c>
-      <c r="EF2" s="3">
+      <c r="EG2">
         <v>2186.06</v>
       </c>
-      <c r="EG2" s="3">
+      <c r="EH2">
         <v>2183.61</v>
       </c>
-      <c r="EH2" s="3">
+      <c r="EI2">
         <v>2201.88</v>
       </c>
-      <c r="EI2" s="3">
-        <v>2183.7600000000002</v>
-      </c>
-      <c r="EJ2" s="3">
+      <c r="EJ2">
+        <v>2183.76</v>
+      </c>
+      <c r="EK2">
         <v>2201.19</v>
       </c>
-      <c r="EK2" s="3">
-        <v>2198.1999999999998</v>
-      </c>
-      <c r="EL2" s="3">
+      <c r="EL2">
+        <v>2198.2</v>
+      </c>
+      <c r="EM2">
         <v>2228.83</v>
       </c>
-      <c r="EM2" s="3">
+      <c r="EN2">
         <v>2228.66</v>
       </c>
-      <c r="EN2" s="3">
+      <c r="EO2">
         <v>2216.19</v>
       </c>
-      <c r="EO2" s="3">
+      <c r="EP2">
         <v>2200.44</v>
       </c>
-      <c r="EP2" s="3">
+      <c r="EQ2">
         <v>2217.86</v>
       </c>
-      <c r="EQ2" s="3">
-        <v>2256.9899999999998</v>
-      </c>
-      <c r="ER2" s="3">
+      <c r="ER2">
+        <v>2256.99</v>
+      </c>
+      <c r="ES2">
         <v>2263.16</v>
       </c>
-      <c r="ES2" s="3">
-        <v>2267.0100000000002</v>
-      </c>
-      <c r="ET2" s="3">
+      <c r="ET2">
+        <v>2267.01</v>
+      </c>
+      <c r="EU2">
         <v>2249.37</v>
       </c>
-      <c r="EU2" s="3">
+      <c r="EV2">
         <v>2251.04</v>
       </c>
-      <c r="EV2" s="3">
-        <v>2279.9699999999998</v>
-      </c>
-      <c r="EW2" s="3">
+      <c r="EW2">
+        <v>2279.97</v>
+      </c>
+      <c r="EX2">
         <v>2311.86</v>
       </c>
-      <c r="EX2" s="3">
+      <c r="EY2">
         <v>2342.61</v>
       </c>
-      <c r="EY2" s="3">
+      <c r="EZ2">
         <v>2351.67</v>
       </c>
-      <c r="EZ2" s="3">
+      <c r="FA2">
         <v>2386.38</v>
       </c>
-      <c r="FA2" s="3">
+      <c r="FB2">
         <v>2418.67</v>
       </c>
-      <c r="FB2" s="3">
+      <c r="FC2">
         <v>2432.35</v>
       </c>
-      <c r="FC2" s="3">
-        <v>2437.5300000000002</v>
-      </c>
-      <c r="FD2" s="3">
-        <v>2407.4899999999998</v>
-      </c>
-      <c r="FE2" s="3">
-        <v>2348.2399999999998</v>
-      </c>
-      <c r="FF2" s="3">
+      <c r="FD2">
+        <v>2437.53</v>
+      </c>
+      <c r="FE2">
+        <v>2407.49</v>
+      </c>
+      <c r="FF2">
+        <v>2348.24</v>
+      </c>
+      <c r="FG2">
         <v>2360.54</v>
       </c>
-      <c r="FG2" s="3">
-        <v>2274.2199999999998</v>
-      </c>
-      <c r="FH2" s="3">
+      <c r="FH2">
+        <v>2274.22</v>
+      </c>
+      <c r="FI2">
         <v>2304.59</v>
       </c>
-      <c r="FI2" s="3">
+      <c r="FJ2">
         <v>2329.83</v>
       </c>
-      <c r="FJ2" s="3">
+      <c r="FK2">
         <v>2366.73</v>
       </c>
-      <c r="FK2" s="3">
-        <v>2369.3200000000002</v>
-      </c>
-      <c r="FL2" s="3">
-        <v>2344.4499999999998</v>
-      </c>
-      <c r="FM2" s="3">
-        <v>2353.8000000000002</v>
-      </c>
-      <c r="FN2" s="3">
+      <c r="FL2">
+        <v>2369.32</v>
+      </c>
+      <c r="FM2">
+        <v>2344.45</v>
+      </c>
+      <c r="FN2">
+        <v>2353.8</v>
+      </c>
+      <c r="FO2">
         <v>2326.17</v>
       </c>
-      <c r="FO2" s="3">
-        <v>2349.5500000000002</v>
-      </c>
-      <c r="FP2" s="3">
+      <c r="FP2">
+        <v>2349.55</v>
+      </c>
+      <c r="FQ2">
         <v>2364.27</v>
       </c>
-      <c r="FQ2" s="3">
+      <c r="FR2">
         <v>2395.9</v>
       </c>
-      <c r="FR2" s="3">
+      <c r="FS2">
         <v>2368.25</v>
       </c>
-      <c r="FS2" s="3">
-        <v>2384.2199999999998</v>
-      </c>
-      <c r="FT2" s="3">
+      <c r="FT2">
+        <v>2384.22</v>
+      </c>
+      <c r="FU2">
         <v>2401.91</v>
       </c>
-      <c r="FU2" s="3">
+      <c r="FV2">
         <v>2375.81</v>
       </c>
-      <c r="FV2" s="3">
+      <c r="FW2">
         <v>2396.48</v>
       </c>
-      <c r="FW2" s="3">
+      <c r="FX2">
         <v>2396.69</v>
       </c>
-      <c r="FX2" s="3">
+      <c r="FY2">
         <v>2427.91</v>
       </c>
-      <c r="FY2" s="3">
+      <c r="FZ2">
         <v>2443.58</v>
       </c>
-      <c r="FZ2" s="3">
+      <c r="GA2">
         <v>2435.92</v>
       </c>
-      <c r="GA2" s="3">
+      <c r="GB2">
         <v>2406.17</v>
       </c>
-      <c r="GB2" s="3">
+      <c r="GC2">
         <v>2412.4</v>
       </c>
-      <c r="GC2" s="3">
+      <c r="GD2">
         <v>2389.39</v>
       </c>
-      <c r="GD2" s="3">
+      <c r="GE2">
         <v>2332.59</v>
       </c>
-      <c r="GE2" s="3">
-        <v>2333.2399999999998</v>
-      </c>
-      <c r="GF2" s="3">
-        <v>2272.6999999999998</v>
-      </c>
-      <c r="GG2" s="3">
+      <c r="GF2">
+        <v>2333.24</v>
+      </c>
+      <c r="GG2">
+        <v>2272.7</v>
+      </c>
+      <c r="GH2">
         <v>2278.79</v>
       </c>
-      <c r="GH2" s="3">
+      <c r="GI2">
         <v>2308.08</v>
       </c>
-      <c r="GI2" s="3">
+      <c r="GJ2">
         <v>2327.89</v>
       </c>
-      <c r="GJ2" s="3">
+      <c r="GK2">
         <v>2358</v>
       </c>
-      <c r="GK2" s="3">
+      <c r="GL2">
         <v>2365.9</v>
       </c>
-      <c r="GL2" s="3">
+      <c r="GM2">
         <v>2386.94</v>
       </c>
-      <c r="GM2" s="3">
+      <c r="GN2">
         <v>2391.96</v>
       </c>
-      <c r="GN2" s="3">
+      <c r="GO2">
         <v>2403.73</v>
       </c>
-      <c r="GO2" s="3">
+      <c r="GP2">
         <v>2403.15</v>
       </c>
-      <c r="GP2" s="3">
+      <c r="GQ2">
         <v>2380.48</v>
       </c>
-      <c r="GQ2" s="3">
+      <c r="GR2">
         <v>2361.21</v>
       </c>
-      <c r="GR2" s="3">
-        <v>2341.5300000000002</v>
-      </c>
-      <c r="GS2" s="3">
-        <v>2346.7399999999998</v>
-      </c>
-      <c r="GT2" s="3">
+      <c r="GS2">
+        <v>2341.53</v>
+      </c>
+      <c r="GT2">
+        <v>2346.74</v>
+      </c>
+      <c r="GU2">
         <v>2358.41</v>
       </c>
-      <c r="GU2" s="3">
+      <c r="GV2">
         <v>2370.86</v>
       </c>
-      <c r="GV2" s="3">
-        <v>2355.0500000000002</v>
-      </c>
-      <c r="GW2" s="3">
+      <c r="GW2">
+        <v>2355.05</v>
+      </c>
+      <c r="GX2">
         <v>2360.81</v>
       </c>
-      <c r="GX2" s="3">
+      <c r="GY2">
         <v>2343.91</v>
       </c>
-      <c r="GY2" s="3">
+      <c r="GZ2">
         <v>2330.84</v>
       </c>
-      <c r="GZ2" s="3">
-        <v>2345.2600000000002</v>
-      </c>
-      <c r="HA2" s="3">
+      <c r="HA2">
+        <v>2345.26</v>
+      </c>
+      <c r="HB2">
         <v>2326.67</v>
       </c>
-      <c r="HB2" s="3">
+      <c r="HC2">
         <v>2267.15</v>
       </c>
-      <c r="HC2" s="3">
+      <c r="HD2">
         <v>2300.16</v>
       </c>
-      <c r="HD2" s="3">
+      <c r="HE2">
         <v>2343.31</v>
       </c>
-      <c r="HE2" s="3">
-        <v>2357.3200000000002</v>
-      </c>
-      <c r="HF2" s="3">
+      <c r="HF2">
+        <v>2357.32</v>
+      </c>
+      <c r="HG2">
         <v>2413.79</v>
       </c>
-      <c r="HG2" s="3">
+      <c r="HH2">
         <v>2416.5</v>
       </c>
-      <c r="HH2" s="3">
-        <v>2447.1999999999998</v>
-      </c>
-      <c r="HI2" s="3">
+      <c r="HI2">
+        <v>2447.2</v>
+      </c>
+      <c r="HJ2">
         <v>2452.83</v>
       </c>
-      <c r="HJ2" s="3">
+      <c r="HK2">
         <v>2485.87</v>
       </c>
-      <c r="HK2" s="3">
+      <c r="HL2">
         <v>2475.62</v>
       </c>
-      <c r="HL2" s="3">
+      <c r="HM2">
         <v>2493.87</v>
       </c>
-      <c r="HM2" s="3">
-        <v>2543.0300000000002</v>
-      </c>
-      <c r="HN2" s="3">
+      <c r="HN2">
+        <v>2543.03</v>
+      </c>
+      <c r="HO2">
         <v>2539.15</v>
       </c>
-      <c r="HO2" s="3">
+      <c r="HP2">
         <v>2545.64</v>
       </c>
-      <c r="HP2" s="3">
+      <c r="HQ2">
         <v>2547.42</v>
       </c>
-      <c r="HQ2" s="3">
+      <c r="HR2">
         <v>2553.5</v>
       </c>
-      <c r="HR2" s="3">
+      <c r="HS2">
         <v>2602.59</v>
       </c>
-      <c r="HS2" s="3">
-        <v>2617.7600000000002</v>
-      </c>
-      <c r="HT2" s="3">
+      <c r="HT2">
+        <v>2617.76</v>
+      </c>
+      <c r="HU2">
         <v>2601.54</v>
       </c>
-      <c r="HU2" s="3">
+      <c r="HV2">
         <v>2625.91</v>
       </c>
-      <c r="HV2" s="3">
+      <c r="HW2">
         <v>2633.45</v>
       </c>
-      <c r="HW2" s="3">
+      <c r="HX2">
         <v>2591.34</v>
       </c>
-      <c r="HX2" s="3">
+      <c r="HY2">
         <v>2634.25</v>
       </c>
-      <c r="HY2" s="3">
+      <c r="HZ2">
         <v>2675.9</v>
       </c>
-      <c r="HZ2" s="3">
+      <c r="IA2">
         <v>2696.22</v>
       </c>
-      <c r="IA2" s="3">
+      <c r="IB2">
         <v>2731.45</v>
       </c>
-      <c r="IB2" s="3">
+      <c r="IC2">
         <v>2745.44</v>
       </c>
-      <c r="IC2" s="3">
+      <c r="ID2">
         <v>2700.93</v>
       </c>
-      <c r="ID2" s="3">
+      <c r="IE2">
         <v>2755.47</v>
       </c>
-      <c r="IE2" s="3">
+      <c r="IF2">
         <v>2746.46</v>
       </c>
-      <c r="IF2" s="3">
+      <c r="IG2">
         <v>2770.06</v>
       </c>
-      <c r="IG2" s="3">
+      <c r="IH2">
         <v>2762.2</v>
       </c>
-      <c r="IH2" s="3">
+      <c r="II2">
         <v>2756.82</v>
       </c>
-      <c r="II2" s="3">
+      <c r="IJ2">
         <v>2771.79</v>
       </c>
-      <c r="IJ2" s="3">
+      <c r="IK2">
         <v>2770.43</v>
       </c>
-      <c r="IK2" s="3">
+      <c r="IL2">
         <v>2772.18</v>
       </c>
-      <c r="IL2" s="3">
+      <c r="IM2">
         <v>2778.65</v>
       </c>
-      <c r="IM2" s="3">
+      <c r="IN2">
         <v>2733.68</v>
       </c>
-      <c r="IN2" s="3">
+      <c r="IO2">
         <v>2759.82</v>
       </c>
-      <c r="IO2" s="3">
+      <c r="IP2">
         <v>2806.86</v>
       </c>
-      <c r="IP2" s="3">
+      <c r="IQ2">
         <v>2808.6</v>
       </c>
-      <c r="IQ2" s="3">
+      <c r="IR2">
         <v>2820.51</v>
       </c>
-      <c r="IR2" s="3">
+      <c r="IS2">
         <v>2873.47</v>
       </c>
-      <c r="IS2" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="IT2" s="3">
+      <c r="IU2">
         <v>2944.45</v>
       </c>
-      <c r="IU2" s="3">
+      <c r="IV2">
         <v>2990.57</v>
       </c>
-      <c r="IV2" s="3">
+      <c r="IW2">
         <v>2968.21</v>
       </c>
-      <c r="IW2" s="3">
+      <c r="IX2">
         <v>3031.68</v>
       </c>
-      <c r="IX2" s="3">
+      <c r="IY2">
         <v>3152.18</v>
       </c>
-      <c r="IY2" s="3">
+      <c r="IZ2">
         <v>3148.45</v>
       </c>
-      <c r="IZ2" s="3">
+      <c r="JA2">
         <v>3125.95</v>
       </c>
-      <c r="JA2" s="3">
+      <c r="JB2">
         <v>3148.29</v>
       </c>
-      <c r="JB2" s="3">
+      <c r="JC2">
         <v>3149.93</v>
       </c>
-      <c r="JC2" s="3">
+      <c r="JD2">
         <v>3085.9</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="6"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="9"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="9"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:Q4"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>